--- a/data/trans_dic/IP21-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,39</t>
+          <t>1,84; 5,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,12</t>
+          <t>2,3; 6,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,83</t>
+          <t>0,48; 2,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,27</t>
+          <t>0,43; 2,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,28</t>
+          <t>0,91; 4,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,0</t>
+          <t>1,75; 5,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,22</t>
+          <t>0,3; 2,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,74</t>
+          <t>1,08; 5,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,3</t>
+          <t>1,81; 4,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,41</t>
+          <t>2,46; 5,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,38</t>
+          <t>0,54; 2,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,03</t>
+          <t>1,04; 3,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,87</t>
+          <t>0,73; 3,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,91</t>
+          <t>1,4; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,75</t>
+          <t>1,96; 5,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,88</t>
+          <t>0,51; 3,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,3</t>
+          <t>0,25; 2,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,61</t>
+          <t>0,5; 3,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,65</t>
+          <t>1,06; 4,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,27</t>
+          <t>0,18; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,47</t>
+          <t>0,71; 2,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,37</t>
+          <t>1,16; 3,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,12</t>
+          <t>1,86; 4,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,31</t>
+          <t>0,54; 2,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>3,39%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>9,07%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,19%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 12,65</t>
+          <t>9,14; 19,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,78</t>
+          <t>4,47; 11,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,71</t>
+          <t>2,14; 8,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,55</t>
+          <t>1,54; 9,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,06</t>
+          <t>11,42; 22,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,39</t>
+          <t>6,2; 14,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,26</t>
+          <t>2,65; 8,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,03</t>
+          <t>0,61; 6,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 11,52</t>
+          <t>11,32; 18,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,4</t>
+          <t>6,09; 11,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,44</t>
+          <t>3,14; 7,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,27</t>
+          <t>1,4; 6,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,87</t>
+          <t>2,12; 6,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,91</t>
+          <t>3,19; 7,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,75</t>
+          <t>0,47; 2,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,88</t>
+          <t>0,63; 3,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,3</t>
+          <t>0,53; 3,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,61</t>
+          <t>2,64; 7,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,65</t>
+          <t>1,79; 5,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,27</t>
+          <t>1,13; 6,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,47</t>
+          <t>1,66; 3,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,37</t>
+          <t>3,48; 6,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,12</t>
+          <t>1,25; 3,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,31</t>
+          <t>1,29; 3,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,39</t>
+          <t>1,4; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,12</t>
+          <t>0,88; 5,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,83</t>
+          <t>1,18; 5,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,27</t>
+          <t>0,33; 3,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,28</t>
+          <t>0,41; 3,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,0</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,22</t>
+          <t>0,78; 4,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,74</t>
+          <t>0,34; 3,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,3</t>
+          <t>1,25; 4,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,41</t>
+          <t>0,69; 3,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,38</t>
+          <t>1,34; 4,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,03</t>
+          <t>0,49; 2,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,16</t>
+          <t>0,34; 3,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,91</t>
+          <t>1,37; 5,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,02</t>
+          <t>1,68; 6,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,62</t>
+          <t>0,34; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,03</t>
+          <t>0,31; 2,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,43</t>
+          <t>0,38; 3,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,2</t>
+          <t>0,75; 4,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,32</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,1</t>
+          <t>0,49; 2,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,15</t>
+          <t>1,14; 3,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,64</t>
+          <t>1,47; 4,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,2</t>
+          <t>0,37; 2,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 5,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 5,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 4,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 2,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 5,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 5,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 4,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 2,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 5,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 5,14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 3,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 2,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP21-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 19,0</t>
+          <t>9,14; 18,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,73</t>
+          <t>4,2; 11,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,59</t>
+          <t>2,43; 8,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,93</t>
+          <t>1,55; 9,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 22,95</t>
+          <t>11,02; 22,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,52</t>
+          <t>6,0; 14,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,72</t>
+          <t>2,78; 9,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,41</t>
+          <t>0,6; 6,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 18,84</t>
+          <t>11,11; 18,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,51</t>
+          <t>6,08; 11,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,44</t>
+          <t>3,02; 7,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,38</t>
+          <t>1,55; 6,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,17</t>
+          <t>2,09; 6,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,63</t>
+          <t>2,98; 7,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,87</t>
+          <t>0,49; 2,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,67</t>
+          <t>0,64; 3,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,08</t>
+          <t>0,53; 3,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,35</t>
+          <t>2,74; 7,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,68</t>
+          <t>1,7; 5,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,11</t>
+          <t>1,27; 5,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,9</t>
+          <t>1,61; 4,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,75</t>
+          <t>3,51; 6,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,53</t>
+          <t>1,33; 3,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,86</t>
+          <t>1,27; 3,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,72</t>
+          <t>1,38; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,74</t>
+          <t>0,85; 5,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,85</t>
+          <t>1,09; 5,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,32</t>
+          <t>0,33; 3,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,94</t>
+          <t>0,42; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,4</t>
+          <t>0,75; 4,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,26</t>
+          <t>0,34; 3,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,4</t>
+          <t>1,22; 4,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,46</t>
+          <t>0,65; 3,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,06</t>
+          <t>1,36; 4,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,51</t>
+          <t>0,4; 2,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,29</t>
+          <t>0,34; 3,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,71</t>
+          <t>1,36; 5,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,96</t>
+          <t>1,79; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,35</t>
+          <t>0,27; 3,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,64</t>
+          <t>0,31; 2,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,17</t>
+          <t>0,38; 3,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,34</t>
+          <t>0,71; 4,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,26</t>
+          <t>0,5; 2,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,7</t>
+          <t>1,08; 3,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,59</t>
+          <t>1,49; 4,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,03</t>
+          <t>0,31; 2,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,98</t>
+          <t>3,45; 6,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,72</t>
+          <t>3,23; 5,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,02</t>
+          <t>1,86; 3,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,65</t>
+          <t>0,95; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,14</t>
+          <t>2,7; 5,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,41</t>
+          <t>3,03; 5,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,24</t>
+          <t>2,06; 4,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,3</t>
+          <t>0,84; 2,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,07</t>
+          <t>3,4; 5,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,14</t>
+          <t>3,48; 5,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,67</t>
+          <t>2,32; 3,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,22</t>
+          <t>1,04; 2,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>13,49%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>7,35%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>4,67%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,63%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,8%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 18,81</t>
+          <t>12,27; 22,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,4</t>
+          <t>6,46; 14,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,69</t>
+          <t>2,76; 9,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,43</t>
+          <t>0,61; 6,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 22,34</t>
+          <t>8,87; 18,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 14,62</t>
+          <t>4,2; 11,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,09</t>
+          <t>2,14; 8,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,05</t>
+          <t>1,62; 9,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 18,74</t>
+          <t>11,46; 18,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,55</t>
+          <t>6,37; 11,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,38</t>
+          <t>3,08; 7,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,54</t>
+          <t>1,64; 6,48</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,68%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>4,99%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>1,27%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,75%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,08</t>
+          <t>0,52; 3,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,8</t>
+          <t>2,8; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,97</t>
+          <t>1,87; 6,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,54</t>
+          <t>1,04; 5,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,32</t>
+          <t>2,07; 5,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,18</t>
+          <t>2,97; 7,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,56</t>
+          <t>0,46; 2,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,84</t>
+          <t>0,69; 4,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,0</t>
+          <t>1,66; 3,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,77</t>
+          <t>3,44; 7,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,6</t>
+          <t>1,3; 3,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,83</t>
+          <t>1,21; 3,88</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>3,33%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>2,45%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,8%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,19%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,58</t>
+          <t>0,41; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,65</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,28</t>
+          <t>0,83; 4,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,17</t>
+          <t>0,33; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,21</t>
+          <t>1,34; 6,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,82; 5,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,49</t>
+          <t>1,13; 5,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,17</t>
+          <t>0,38; 3,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,31</t>
+          <t>1,25; 4,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,18</t>
+          <t>0,64; 3,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,21</t>
+          <t>1,47; 4,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,5</t>
+          <t>0,44; 2,55</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,33%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,99%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>3,65%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,33</t>
+          <t>0,31; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,76</t>
+          <t>0,39; 3,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,75</t>
+          <t>0,72; 4,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,15</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,79</t>
+          <t>0,34; 3,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,18</t>
+          <t>1,26; 5,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,21</t>
+          <t>1,77; 6,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,41; 3,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,34</t>
+          <t>0,49; 2,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,57</t>
+          <t>1,08; 3,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,77</t>
+          <t>1,52; 4,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,05</t>
+          <t>0,33; 2,18</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>4,59%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>4,43%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>2,78%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,0</t>
+          <t>2,72; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,85</t>
+          <t>2,9; 5,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,87</t>
+          <t>2,16; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,63</t>
+          <t>0,75; 2,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,03</t>
+          <t>3,42; 6,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,44</t>
+          <t>3,31; 5,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,16</t>
+          <t>1,93; 4,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,36</t>
+          <t>0,98; 2,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,06</t>
+          <t>3,38; 5,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,21</t>
+          <t>3,41; 5,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,82</t>
+          <t>2,22; 3,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,07</t>
+          <t>1,05; 2,24</t>
         </is>
       </c>
     </row>
